--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2112,7 +2112,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2127,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43924</v>
+        <v>43927</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2805,6 +2805,39 @@
       </c>
       <c r="C63" s="5">
         <v>1974</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B64" s="5">
+        <v>191</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B65" s="5">
+        <v>188</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1625</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2165</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2112,7 +2112,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2127,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2838,6 +2838,17 @@
       </c>
       <c r="C66" s="5">
         <v>2165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1737</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2112,7 +2112,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2127,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2849,6 +2849,17 @@
       </c>
       <c r="C67" s="5">
         <v>1737</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1414</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2094</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2112,7 +2112,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2127,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2860,6 +2860,17 @@
       </c>
       <c r="C68" s="5">
         <v>2094</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1294</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2274</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2112,7 +2112,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2127,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43930</v>
+        <v>43934</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2871,6 +2871,50 @@
       </c>
       <c r="C69" s="5">
         <v>2274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1344</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B71" s="5">
+        <v>366</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B72" s="5">
+        <v>348</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1759</v>
+      </c>
+      <c r="C73">
+        <v>2037</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -143,7 +143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,6 +163,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2112,7 +2115,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2127,7 +2130,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2915,6 +2918,17 @@
       </c>
       <c r="C73">
         <v>2037</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B74" s="7">
+        <v>1269</v>
+      </c>
+      <c r="C74" s="3">
+        <v>2373</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2115,7 +2115,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2130,7 +2130,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2929,6 +2929,17 @@
       </c>
       <c r="C74" s="3">
         <v>2373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B75" s="7">
+        <v>1159</v>
+      </c>
+      <c r="C75" s="7">
+        <v>2343</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2115,7 +2115,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2130,7 +2130,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2929,17 +2929,6 @@
       </c>
       <c r="C74" s="3">
         <v>2373</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B75" s="7">
-        <v>1159</v>
-      </c>
-      <c r="C75" s="7">
-        <v>2343</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2115,7 +2115,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2130,7 +2130,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43935</v>
+        <v>43937</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2929,6 +2929,28 @@
       </c>
       <c r="C74" s="3">
         <v>2373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B75" s="7">
+        <v>1159</v>
+      </c>
+      <c r="C75" s="7">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B76" s="7">
+        <v>1245</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2337</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -95,12 +95,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -143,7 +149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -166,6 +172,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2115,7 +2124,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2130,7 +2139,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2951,6 +2960,17 @@
       </c>
       <c r="C76" s="3">
         <v>2337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B77" s="7">
+        <v>1176</v>
+      </c>
+      <c r="C77" s="8">
+        <v>2913</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2124,7 +2124,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2139,7 +2139,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43938</v>
+        <v>43941</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2971,6 +2971,39 @@
       </c>
       <c r="C77" s="8">
         <v>2913</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B78" s="8">
+        <v>443</v>
+      </c>
+      <c r="C78" s="8">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B79" s="8">
+        <v>445</v>
+      </c>
+      <c r="C79" s="8">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B80" s="8">
+        <v>1377</v>
+      </c>
+      <c r="C80" s="8">
+        <v>2460</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2124,7 +2124,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2139,7 +2139,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3004,6 +3004,17 @@
       </c>
       <c r="C80" s="8">
         <v>2460</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B81" s="8">
+        <v>1061</v>
+      </c>
+      <c r="C81" s="7">
+        <v>2306</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -149,7 +149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -175,6 +175,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2124,10 +2127,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2139,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3015,6 +3018,17 @@
       </c>
       <c r="C81" s="7">
         <v>2306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="9">
+        <v>43943</v>
+      </c>
+      <c r="B82" s="7">
+        <v>977</v>
+      </c>
+      <c r="C82" s="7">
+        <v>2490</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2127,10 +2127,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3029,6 +3029,17 @@
       </c>
       <c r="C82" s="7">
         <v>2490</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B83" s="7">
+        <v>934</v>
+      </c>
+      <c r="C83" s="7">
+        <v>2290</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3040,6 +3040,17 @@
       </c>
       <c r="C83" s="7">
         <v>2290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B84" s="7">
+        <v>1038</v>
+      </c>
+      <c r="C84" s="7">
+        <v>2526</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43945</v>
+        <v>43948</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3051,6 +3051,39 @@
       </c>
       <c r="C84" s="7">
         <v>2526</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B85">
+        <v>549</v>
+      </c>
+      <c r="C85">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B86">
+        <v>427</v>
+      </c>
+      <c r="C86">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B87">
+        <v>1142</v>
+      </c>
+      <c r="C87">
+        <v>2288</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43948</v>
+        <v>43950</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3084,6 +3084,28 @@
       </c>
       <c r="C87">
         <v>2288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B88" s="7">
+        <v>836</v>
+      </c>
+      <c r="C88" s="7">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B89" s="7">
+        <v>445</v>
+      </c>
+      <c r="C89" s="3">
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43950</v>
+        <v>43957</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3106,6 +3106,83 @@
       </c>
       <c r="C89" s="3">
         <v>423</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B90" s="3">
+        <v>938</v>
+      </c>
+      <c r="C90" s="3">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B91" s="3">
+        <v>712</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B92" s="3">
+        <v>432</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B93" s="3">
+        <v>399</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B94" s="3">
+        <v>513</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B95" s="3">
+        <v>507</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B96" s="3">
+        <v>560</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1732</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3183,6 +3183,17 @@
       </c>
       <c r="C96" s="3">
         <v>1732</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B97" s="3">
+        <v>902</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2290</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3194,6 +3194,17 @@
       </c>
       <c r="C97" s="3">
         <v>2290</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B98" s="3">
+        <v>589</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1966</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43959</v>
+        <v>43962</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3205,6 +3205,39 @@
       </c>
       <c r="C98" s="3">
         <v>1966</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B99" s="3">
+        <v>516</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B100" s="3">
+        <v>366</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B101" s="3">
+        <v>921</v>
+      </c>
+      <c r="C101" s="3">
+        <v>2141</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3238,6 +3238,17 @@
       </c>
       <c r="C101" s="3">
         <v>2141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B102" s="3">
+        <v>535</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1815</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3249,6 +3249,17 @@
       </c>
       <c r="C102" s="3">
         <v>1815</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B103" s="3">
+        <v>532</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1592</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -1831,15 +1831,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
+      <xdr:colOff>228599</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3260,6 +3260,17 @@
       </c>
       <c r="C103" s="3">
         <v>1592</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B104" s="3">
+        <v>463</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1555</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43965</v>
+        <v>43969</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3271,6 +3271,50 @@
       </c>
       <c r="C104" s="3">
         <v>1555</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B105" s="3">
+        <v>392</v>
+      </c>
+      <c r="C105" s="3">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B106" s="3">
+        <v>287</v>
+      </c>
+      <c r="C106" s="3">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B107" s="3">
+        <v>291</v>
+      </c>
+      <c r="C107" s="3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B108" s="3">
+        <v>516</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1425</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3315,6 +3315,17 @@
       </c>
       <c r="C108" s="3">
         <v>1425</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B109" s="3">
+        <v>377</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1104</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3326,6 +3326,17 @@
       </c>
       <c r="C109" s="3">
         <v>1104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B110" s="3">
+        <v>312</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1105</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3337,6 +3337,17 @@
       </c>
       <c r="C110" s="3">
         <v>1105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B111" s="3">
+        <v>316</v>
+      </c>
+      <c r="C111" s="3">
+        <v>882</v>
       </c>
     </row>
   </sheetData>
